--- a/QA_specialist/snap_specialist.xlsx
+++ b/QA_specialist/snap_specialist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szeimar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maroufi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -182,7 +182,78 @@
     <t>بررسی تخفیف فود پارتی فقط بر روی غذای مورد نظر و نه بر مجموع اقلام پیشنهادی همچنین اعلام کوپن بر روی مجموع سفارشات</t>
   </si>
   <si>
-    <t>۱) نمایش تمام رستوران‌هایی که حداقل یک کوپن دارند از جمله رستوران برگراتور با تخفیف تا ۲۰ درصد و پیک ۱۸ هزارتومان و ۴ کوپن از جمله کوپن تخفیف سفارش اول 
+    <t>۱) غذای مورد نظر :
+پیتزا پلاک ۲۲۶ هزار تومان با احتساب تخفیف ۲۰ درصدی بر قیمت اصلی ۲۸۳ هزار تومان و پیک ۱۴ هزار تومان
+۲) انتخاب گزینه افزودنی نان سیر با قیمت ۱۲۷ هزار تومان</t>
+  </si>
+  <si>
+    <t>۱) کلیک بر آیکون "تخفیف روز"
+۲)کلیک بر آیکون "مشاهده همه"
+۳) کلیک بر روی غذای خاص یک رستوران با تخفیف فودپارتی
+۴) کلیک بر "تکمیل خرید "
+۵) انتخاب گزینه های افزودنی 
+۶) کلیک بر "ادامه "
+۷) کلیک بر "پرداخت انلاین"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
+۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتی در یک صفحه 
+۳)به دلیل نداشتن گزینه پیشنهادی مشاهده صفحه اصلی غذا مورد نظر با نمایش عدد ۱ کنار این غذا و آیکون "تکمیل خرید"
+۴)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
+,مشاهده فاکتور 
+و کوپن ۱ درصدی سفارش اول 
+و تعداد انتخابی غذای مورد نظر در اینجا پیتزا پلاک
+۵)مشاهده پیتزا پلاک و نان سیر بعنوان غذاهای انتخابی و
+تغییر فاکتور کامل به شرح زیر : 
+قیمت تمام سفارشات ۴۱۰ هزار تومان 
+۴۱۰=۲۸۳+۱۲۷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00CC00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">سود شما از تخفیفی:
+۲۰ در صد بر ۲۸۳ هزار تومان و تخفیف ۵ درصدی بر کل اقلام , ۴۱۰ هزار تومان در نتیجه:
+۵۶+۱۷=۷۴
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>مبلغ پیک ۱۴ هزار تومان</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+در نهایت مبلغ پرداختی:
+ مبلغ پرداختی ۴۱۰-۷۴+۱۴=۳۴۹ هزار تومان
+۶)مشاهده صفحه "تایید نهایی و پرداخت آنلاین" 
+شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
+,زمان ارسال 
+,روش پرداخت 
+,جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۳۴۹ هزار تومان
+۷) درگاه بانکی برای پرداخت مبلغ ۳۴۹ هزار تومان
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">۱) نمایش تمام رستوران‌هایی که حداقل یک کوپن دارند از جمله رستوران برگراتور با تخفیف تا ۲۰ درصد و پیک ۱۸ هزارتومان و ۴ کوپن از جمله کوپن تخفیف سفارش اول 
 ۲)مشاهده صفحه رستوران برگزاتوربا غذاهای دارای تخفیف و بدون تخفیف و همچنین کوپن‌ها از جمله کوپن سفارش اول که با ایکون "انتخاب شده" مشخص شده است. 
 ۳) نمایش آیکون تکمیل خرید با قیمت اصلی غذای کریسپی ۲۵۲ هزار تومان و ظاهر شدن عدد ۱ مقابل این غذای انتخابی
 ۴) مشاهده سبد خرید شامل :
@@ -199,40 +270,31 @@
 زمان ارسال 
 روش پرداخت پرداخت 
 جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۲۴۶ هزار تومان
-۷) درگاه بانکی برای پرداخت مبلغ ۲۴۶ هزار تومان</t>
-  </si>
-  <si>
-    <t>۱) کلیک بر آیکون "تخفیف روز"
-۲)کلیک بر آیکون "مشاهده همه"
-۳) کلیک بر روی غذای خاص یک رستوران با تخفیف فودپارتی
-4) کلیک بر "تکمیل خرید "
-5) انتخاب گزینه های افزودنی 
-6) کلیک بر "ادامه "
-7) کلیک بر "پرداخت انلاین"</t>
-  </si>
-  <si>
-    <t>۱) غذای مورد نظر :
-پیتزا پلاک 226 هزار تومان با احتساب تخفیف 20 درصدی بر قیمت اصلی 283 هزار تومان و پیک 14 هزار تومان
-۲) انتخاب گزینه افزودنی نان سیر با قیمت 127 هزار تومان</t>
+۷) درگاه بانکی برای پرداخت مبلغ ۲۴۶ هزار تومان
+</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
-۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتیدر یک صفحه 
-۳) در صورت وجود گزینه های پیشنهادی صفحه ای برای انتخاب آنها نمایان میگردد . در صورت عدم وجود, غذای انتخابی خود به خود در سبد قرار میگیرد و گرینه ۱  مقابل این غذا نمایان می‌شود.
-۴)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
-مشاهده فاکتور :
-با قیمت ۲۰۸ هزار تومان و ارسال رایگان, قیمت مالیات ۱۴.۹هزار تومان و احتساب ۴۱ هزار تومان به عنوان ۲۰ درصد تخفیف در قسمت </t>
+      <t xml:space="preserve">
+۱) نمایش تمام رستوران‌ها با آیکون تخفیف و دارای کوپن از جمله رستوران پیتزا سیب ۳۶۰ با تخفیف ۱۰ درصد و پیک رایگان و دارای دو کوپن
+۲)مشاهده صفحه رستوران آواچی با تخفیف حداکثر تا ۱۰ درصد بر روی غذاهای تخفیف‌دار و مشاهده کوپن‌های موجود از جملهپن خرید نوشابه قوطی برای خرید بالای ۴۵۰ تومان
+۳) بالا آمدن صفحه‌ی انتخاب افزودنی‌ها  در صورت وجود و در غیر اینصورت مشاهده عدد ۱ بر روی غذای انتخابی و ظاهر شدن آیکون "تکمیل خرید" و همچنین مشاهده‌ی گزینه انتخاب شده در زیر کوپن به دلیل خرید بالای ۴۵۰ هزار تومان
+۴) مشاهده سبد خرید شامل :
+"پیشنهادات افزودنی" در صورت وجود
+نوشابه قوطی رایگان
+و آیکون "ادامه" با جمع کل ۵۲۵ هزار تومان 
+فاکتور کامل : قیمت غذای ۵۳۶ هزار تومان
+</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF00FF00"/>
+        <color rgb="FF00CC00"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>سود شما از تخفیف</t>
+      <t xml:space="preserve">سود 10 درصدی از خرید :۵۳ هزار تومان </t>
     </r>
     <r>
       <rPr>
@@ -241,14 +303,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> و در نهایت ۱۶۶.۱ تومان قیمت نهایی غذا.
- مبلغ پرداختی ۱۸۱=۲۰۸-۴۱.۹+۱۴.۹ هزار تومان
-۵)مشاهده صفحه تایید نهایی و پرداخت آنلاین 
-شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
+      <t xml:space="preserve">
+و هزینه ارسال رایگان
+و مالیات ۴۳ هزار تومان  
+مبلغ قابل پرداخت ۵۳۶-۵۳+۴۳ = ۵۲۵
+۵) مشاهده صفحه تایید نهایی و پرداخت شامل: 
+شامل: روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
 زمان ارسال 
-روش پرداخت 
-جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۱۸۱ هزار تومان
-۶) درگاه بانکی برای پرداخت مبلغ ۱۸۱ هزار تومان</t>
+روش پرداخت پرداخت 
+جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۵۲۵ هزار تومان
+۶) درگاه بانکی برای پرداخت مبلغ ۵۲۵ هزار تومان
+</t>
     </r>
   </si>
   <si>
@@ -288,30 +353,28 @@
 زمان ارسال 
 روش پرداخت پرداخت 
 جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۲۰۳ هزار تومان
-۶) درگاه بانکی برای پرداخت مبلغ ۲۰۳ هزار تومان</t>
+۶) درگاه بانکی برای پرداخت مبلغ ۲۰۳ هزار تومان
+</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">۱) نمایش تمام رستوران‌ها با آیکون تخفیف و دارای کوپن از جمله رستوران پیتزا سیب ۳۶۰ با تخفیف ۱۰ درصد و پیک رایگان و دارای دو کوپن
-۲)مشاهده صفحه رستوران آواچی با تخفیف حداکثر تا ۱۰ درصد بر روی غذاهای تخفیف‌دار و مشاهده کوپن‌های موجود از جملهپن خرید نوشابه قوطی برای خرید بالای ۴۵۰ تومان
-۳) بالا آمدن صفحه‌ی انتخاب افزودنی‌ها  در صورت وجود و در غیر اینصورت مشاهده عدد ۱ بر روی غذای انتخابی و ظاهر شدن آیکون "تکمیل خرید" و همچنین مشاهده‌ی گزینه انتخاب شده در زیر کوپن به دلیل خرید بالای ۴۵۰ هزار تومان
-۴) مشاهده سبد خرید شامل :
-"پیشنهادات افزودنی" در صورت وجود
-نوشابه قوطی رایگان
-و آیکون "ادامه" با جمع کل ۵۲۵ هزار تومان 
-فاکتور کامل : قیمت غذای ۵۳۶ هزار تومان
-</t>
+      <t xml:space="preserve">۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
+۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتیدر یک صفحه 
+۳) در صورت وجود گزینه های پیشنهادی صفحه ای برای انتخاب آنها نمایان میگردد . در صورت عدم وجود, غذای انتخابی خود به خود در سبد قرار میگیرد و گرینه ۱  مقابل این غذا نمایان می‌شود.
+۴)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
+مشاهده فاکتور :
+با قیمت ۲۰۸ هزار تومان و ارسال رایگان, قیمت مالیات ۱۴.۹هزار تومان و احتساب ۴۱ هزار تومان به عنوان ۲۰ درصد تخفیف در قسمت </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF00CC00"/>
+        <color rgb="FF00FF00"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">سود 10 درصدی از خرید :۵۳ هزار تومان </t>
+      <t>سود شما از تخفیف</t>
     </r>
     <r>
       <rPr>
@@ -320,73 +383,21 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-و هزینه ارسال رایگان
-و مالیات ۴۳ هزار تومان  
-مبلغ قابل پرداخت ۵۳۶-۵۳+۴۳ = ۵۲۵
-۵) مشاهده صفحه تایید نهایی و پرداخت شامل: 
-شامل: روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
+      <t xml:space="preserve"> و در نهایت ۱۶۶.۱ تومان قیمت نهایی غذا.
+ مبلغ پرداختی ۱۸۱=۲۰۸-۴۱.۹+۱۴.۹ هزار تومان
+۵)مشاهده صفحه تایید نهایی و پرداخت آنلاین 
+شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
 زمان ارسال 
-روش پرداخت پرداخت 
-جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۵۲۵ هزار تومان
-۶) درگاه بانکی برای پرداخت مبلغ ۵۲۵ هزار تومان</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">۱۱) مشاهده فروشگاه‌های تخفیف‌دار, فودپرو, جایزه خرید, انواع کوپن و فود پارتی
-۲) مشاهده محصولاتی از رستوران های مختلف دارای تخفیف فود پارتی در یک صفحه 
-3)به دلیل نداشتن گزینه پیشنهادی مشاهده صفحه اصلی غذا مورد نظر با نمایش عدد 1 کنار این غذا و آیکون "تکمیل خرید"
-4)مشاهده پیشنهاداتی برای افزودن به سبد خرید.
-,مشاهده فاکتور 
-و کوپن 5 درصدی سفارش اول 
-و تعداد انتخابی غذای مورد نظر در اینجا پیتزا پلاک
-5)مشاهده پیتزا پلاک و نان سیر بعنوان غذاهای انتخابی و
-تغییر فاکتور کامل به شرح زیر : 
-قیمت تمام سفارشات 410 هزار تومان 
-410=283+127
+روش پرداخت 
+جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت ۱۸۱ هزار تومان
+۶) درگاه بانکی برای پرداخت مبلغ ۱۸۱ هزار تومان
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00CC00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">سود شما از تخفیفی:
-20 در صد بر 283 هزار تومان و تخفیف 5 درصدی بر کل اقلام , 410 هزار تومان در نتیجه:
-56+17=74
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>مبلغ پیک 14 هزار تومان</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-در نهایت مبلغ پرداختی:
- مبلغ پرداختی 410-74+14=349 هزار تومان
-6)مشاهده صفحه "تایید نهایی و پرداخت آنلاین" 
-شامل: سفارش مورد نظر, روش تحویل سفارش (ارسال پیک و مراجعه حضوری)
-,زمان ارسال 
-,روش پرداخت 
-,جزییات پرداخت شامل اطلاعات کامل فاکتور سبد خرید و مبلغ قابل پرداخت 349 هزار تومان
-7) درگاه بانکی برای پرداخت مبلغ 349 هزار تومان</t>
-    </r>
+  </si>
+  <si>
+    <t>check three discount of snapfood on facture, such as: foodParty,  common discount and coupons.
+written by : Zeinab Maroufi.
+Date : 12/2/2024.</t>
   </si>
 </sst>
 </file>
@@ -403,11 +414,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -451,6 +457,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -472,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -819,158 +832,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,259 +1262,211 @@
     <col min="8" max="8" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:8" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+    </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="32"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" ht="357" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" ht="306" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+    <row r="6" spans="1:8" ht="318.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="408" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="46" t="s">
-        <v>21</v>
+      <c r="H7" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="369.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>4</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="35" t="s">
+    <row r="8" spans="1:8" ht="369.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="408" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="D9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="357" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
-        <v>5</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>6</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H9" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
